--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Efnb1-Ephb1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Efnb1-Ephb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,60 +528,60 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.49593353969124</v>
+        <v>7.079689000000001</v>
       </c>
       <c r="H2">
-        <v>4.49593353969124</v>
+        <v>21.239067</v>
       </c>
       <c r="I2">
-        <v>0.3970958111020147</v>
+        <v>0.5033576067109902</v>
       </c>
       <c r="J2">
-        <v>0.3970958111020147</v>
+        <v>0.5033576067109902</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.66305861323127</v>
+        <v>1.916802666666667</v>
       </c>
       <c r="N2">
-        <v>2.66305861323127</v>
+        <v>5.750408</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.3865473586068074</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.3865473586068074</v>
       </c>
       <c r="Q2">
-        <v>11.97293453739011</v>
+        <v>13.57036675437067</v>
       </c>
       <c r="R2">
-        <v>11.97293453739011</v>
+        <v>122.133300789336</v>
       </c>
       <c r="S2">
-        <v>0.3970958111020147</v>
+        <v>0.1945715533087774</v>
       </c>
       <c r="T2">
-        <v>0.3970958111020147</v>
+        <v>0.1945715533087775</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -593,57 +593,57 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.02018462565816</v>
+        <v>7.079689000000001</v>
       </c>
       <c r="H3">
-        <v>4.02018462565816</v>
+        <v>21.239067</v>
       </c>
       <c r="I3">
-        <v>0.3550760838905127</v>
+        <v>0.5033576067109902</v>
       </c>
       <c r="J3">
-        <v>0.3550760838905127</v>
+        <v>0.5033576067109902</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.66305861323127</v>
+        <v>3.041975666666666</v>
       </c>
       <c r="N3">
-        <v>2.66305861323127</v>
+        <v>9.125926999999999</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.6134526413931926</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.6134526413931926</v>
       </c>
       <c r="Q3">
-        <v>10.70598729413889</v>
+        <v>21.53624166556767</v>
       </c>
       <c r="R3">
-        <v>10.70598729413889</v>
+        <v>193.826174990109</v>
       </c>
       <c r="S3">
-        <v>0.3550760838905127</v>
+        <v>0.3087860534022127</v>
       </c>
       <c r="T3">
-        <v>0.3550760838905127</v>
+        <v>0.3087860534022127</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.408000613680069</v>
+        <v>4.058683666666667</v>
       </c>
       <c r="H4">
-        <v>0.408000613680069</v>
+        <v>12.176051</v>
       </c>
       <c r="I4">
-        <v>0.03603597188194495</v>
+        <v>0.2885676612136944</v>
       </c>
       <c r="J4">
-        <v>0.03603597188194495</v>
+        <v>0.2885676612136945</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.66305861323127</v>
+        <v>1.916802666666667</v>
       </c>
       <c r="N4">
-        <v>2.66305861323127</v>
+        <v>5.750408</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.3865473586068074</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.3865473586068074</v>
       </c>
       <c r="Q4">
-        <v>1.086529548464352</v>
+        <v>7.779695675423111</v>
       </c>
       <c r="R4">
-        <v>1.086529548464352</v>
+        <v>70.017261078808</v>
       </c>
       <c r="S4">
-        <v>0.03603597188194495</v>
+        <v>0.1115450672214976</v>
       </c>
       <c r="T4">
-        <v>0.03603597188194495</v>
+        <v>0.1115450672214977</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,52 +717,300 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.39791840694383</v>
+        <v>4.058683666666667</v>
       </c>
       <c r="H5">
-        <v>2.39791840694383</v>
+        <v>12.176051</v>
       </c>
       <c r="I5">
-        <v>0.2117921331255275</v>
+        <v>0.2885676612136944</v>
       </c>
       <c r="J5">
-        <v>0.2117921331255275</v>
+        <v>0.2885676612136945</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.66305861323127</v>
+        <v>3.041975666666666</v>
       </c>
       <c r="N5">
-        <v>2.66305861323127</v>
+        <v>9.125926999999999</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.6134526413931926</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.6134526413931926</v>
       </c>
       <c r="Q5">
-        <v>6.385797267437573</v>
+        <v>12.34641695269744</v>
       </c>
       <c r="R5">
-        <v>6.385797267437573</v>
+        <v>111.117752574277</v>
       </c>
       <c r="S5">
-        <v>0.2117921331255275</v>
+        <v>0.1770225939921968</v>
       </c>
       <c r="T5">
-        <v>0.2117921331255275</v>
+        <v>0.1770225939921968</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.463315</v>
+      </c>
+      <c r="H6">
+        <v>1.389945</v>
+      </c>
+      <c r="I6">
+        <v>0.03294115455541936</v>
+      </c>
+      <c r="J6">
+        <v>0.03294115455541936</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>1.916802666666667</v>
+      </c>
+      <c r="N6">
+        <v>5.750408</v>
+      </c>
+      <c r="O6">
+        <v>0.3865473586068074</v>
+      </c>
+      <c r="P6">
+        <v>0.3865473586068074</v>
+      </c>
+      <c r="Q6">
+        <v>0.8880834275066666</v>
+      </c>
+      <c r="R6">
+        <v>7.99275084756</v>
+      </c>
+      <c r="S6">
+        <v>0.01273331628285596</v>
+      </c>
+      <c r="T6">
+        <v>0.01273331628285596</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.463315</v>
+      </c>
+      <c r="H7">
+        <v>1.389945</v>
+      </c>
+      <c r="I7">
+        <v>0.03294115455541936</v>
+      </c>
+      <c r="J7">
+        <v>0.03294115455541936</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.041975666666666</v>
+      </c>
+      <c r="N7">
+        <v>9.125926999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.6134526413931926</v>
+      </c>
+      <c r="P7">
+        <v>0.6134526413931926</v>
+      </c>
+      <c r="Q7">
+        <v>1.409392956001666</v>
+      </c>
+      <c r="R7">
+        <v>12.684536604015</v>
+      </c>
+      <c r="S7">
+        <v>0.0202078382725634</v>
+      </c>
+      <c r="T7">
+        <v>0.0202078382725634</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.463241333333333</v>
+      </c>
+      <c r="H8">
+        <v>7.389724</v>
+      </c>
+      <c r="I8">
+        <v>0.175133577519896</v>
+      </c>
+      <c r="J8">
+        <v>0.175133577519896</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>1.916802666666667</v>
+      </c>
+      <c r="N8">
+        <v>5.750408</v>
+      </c>
+      <c r="O8">
+        <v>0.3865473586068074</v>
+      </c>
+      <c r="P8">
+        <v>0.3865473586068074</v>
+      </c>
+      <c r="Q8">
+        <v>4.721547556376889</v>
+      </c>
+      <c r="R8">
+        <v>42.493928007392</v>
+      </c>
+      <c r="S8">
+        <v>0.06769742179367633</v>
+      </c>
+      <c r="T8">
+        <v>0.06769742179367634</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.463241333333333</v>
+      </c>
+      <c r="H9">
+        <v>7.389724</v>
+      </c>
+      <c r="I9">
+        <v>0.175133577519896</v>
+      </c>
+      <c r="J9">
+        <v>0.175133577519896</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.041975666666666</v>
+      </c>
+      <c r="N9">
+        <v>9.125926999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.6134526413931926</v>
+      </c>
+      <c r="P9">
+        <v>0.6134526413931926</v>
+      </c>
+      <c r="Q9">
+        <v>7.493120197127555</v>
+      </c>
+      <c r="R9">
+        <v>67.43808177414799</v>
+      </c>
+      <c r="S9">
+        <v>0.1074361557262196</v>
+      </c>
+      <c r="T9">
+        <v>0.1074361557262196</v>
       </c>
     </row>
   </sheetData>
